--- a/Excel2Json/bin/task.xlsx
+++ b/Excel2Json/bin/task.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A2CF7-5093-4ECF-B7E4-01F26E35E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F81784-6163-4DA4-A8B3-D24E68EFEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,54 +39,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>의수</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B890692C-9ADA-4AF6-8002-02EFD8A7AE84}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>IDLE : 0
-SMILE : 1
-SAD:2
-CRY:3
-ANGRY:4
-SURPRIS0:5
-PANIC:6
-SUSPICTION:7
-FEAR:8
-CURIOUS:9</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>task1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,35 +65,331 @@
     <t>실행 번호 (동시 실행)</t>
   </si>
   <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice의 경우 +값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increaseVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>선택지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>표정</t>
+  </si>
+  <si>
+    <t>종류</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>enum:EXPRESSION:IDLE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>라우</t>
+  </si>
+  <si>
+    <t>Main Char</t>
+  </si>
+  <si>
+    <t>출입관리노인</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>라우대화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우대화3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextFile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainStory/Story/Song</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Choice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Song1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Song2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/Song3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래꺼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2번</t>
+  </si>
+  <si>
+    <t>1-3번</t>
+  </si>
+  <si>
+    <t>1-4번</t>
+  </si>
+  <si>
+    <t>1-5번</t>
+  </si>
+  <si>
+    <t>1-6번</t>
+  </si>
+  <si>
+    <t>1-7번</t>
+  </si>
+  <si>
+    <t>1-8번</t>
+  </si>
+  <si>
+    <t>1-9번</t>
+  </si>
+  <si>
+    <t>1-10번</t>
+  </si>
+  <si>
+    <t>1-11번</t>
+  </si>
+  <si>
+    <t>1-12번</t>
+  </si>
+  <si>
+    <t>1-13번</t>
+  </si>
+  <si>
+    <t>2-1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2번</t>
+  </si>
+  <si>
+    <t>2-3번</t>
+  </si>
+  <si>
+    <t>2-4번</t>
+  </si>
+  <si>
+    <t>2-5번</t>
+  </si>
+  <si>
+    <t>2-6번</t>
+  </si>
+  <si>
+    <t>2-7번</t>
+  </si>
+  <si>
+    <t>2-8번</t>
+  </si>
+  <si>
+    <t>2-9번</t>
+  </si>
+  <si>
+    <t>2-10번</t>
+  </si>
+  <si>
+    <t>2-11번</t>
+  </si>
+  <si>
+    <t>2-12번</t>
+  </si>
+  <si>
+    <t>2-13번</t>
+  </si>
+  <si>
+    <t>3-1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2번</t>
+  </si>
+  <si>
+    <t>3-3번</t>
+  </si>
+  <si>
+    <t>3-4번</t>
+  </si>
+  <si>
+    <t>3-5번</t>
+  </si>
+  <si>
+    <t>3-6번</t>
+  </si>
+  <si>
+    <t>3-7번</t>
+  </si>
+  <si>
+    <t>3-8번</t>
+  </si>
+  <si>
+    <t>3-9번</t>
+  </si>
+  <si>
+    <t>3-10번</t>
+  </si>
+  <si>
+    <t>3-11번</t>
+  </si>
+  <si>
+    <t>3-12번</t>
+  </si>
+  <si>
+    <t>3-13번</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,20 +404,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +432,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -499,80 +748,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1675B37C-4C77-48B9-996D-E3506E33A1AB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1675B37C-4C77-48B9-996D-E3506E33A1AB}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D61730-6D4C-4121-B556-6799835F9FDE}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B5A38D-9C8E-4A00-8E5F-8DF69AE54856}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF1B47-E161-4C7E-958F-7E02A5DC06CE}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA7327-2CB3-42A1-9BF4-4007BEAAB051}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D2A8E-7A4D-4CFA-9BE1-E7822BC533BC}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/task.xlsx
+++ b/Excel2Json/bin/task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F81784-6163-4DA4-A8B3-D24E68EFEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD1071-8034-44B4-B880-42C196F2F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,20 +749,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1675B37C-4C77-48B9-996D-E3506E33A1AB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="A9:D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -822,9 +822,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -833,12 +833,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -850,12 +850,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -867,12 +867,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -882,6 +882,14 @@
       </c>
       <c r="F8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -896,12 +904,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -912,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -932,7 +940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -952,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -972,12 +980,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -986,12 +994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1000,12 +1008,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1017,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1039,12 +1047,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1115,12 +1123,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1129,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1151,12 +1159,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1227,12 +1235,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1241,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1263,21 +1271,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF1B47-E161-4C7E-958F-7E02A5DC06CE}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +1453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1515,17 +1523,17 @@
       <selection activeCell="D5" sqref="D5:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1553,7 +1561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1759,21 +1767,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D2A8E-7A4D-4CFA-9BE1-E7822BC533BC}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
